--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43025,6 +43025,41 @@
         <v>124000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>484700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43060,6 +43060,41 @@
         <v>484700</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>486100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43095,6 +43095,41 @@
         <v>486100</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>517100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43130,6 +43130,41 @@
         <v>517100</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>166600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43165,6 +43165,41 @@
         <v>166600</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>508000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43200,6 +43200,41 @@
         <v>508000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>243000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43235,6 +43235,41 @@
         <v>243000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>166100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43270,6 +43270,41 @@
         <v>166100</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43305,6 +43305,41 @@
         <v>40000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>71900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43340,6 +43340,41 @@
         <v>71900</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>665600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43375,6 +43375,41 @@
         <v>665600</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>406500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43410,6 +43410,41 @@
         <v>406500</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>262000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43445,6 +43445,76 @@
         <v>262000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>285200</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1774600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43515,6 +43515,76 @@
         <v>1774600</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>529700</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>646000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43585,6 +43585,41 @@
         <v>646000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>99100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43620,6 +43620,41 @@
         <v>99100</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>279800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43655,6 +43655,41 @@
         <v>279800</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>630100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43690,6 +43690,41 @@
         <v>630100</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>3406000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43725,6 +43725,76 @@
         <v>3406000</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>2362200</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>2015600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43795,6 +43795,41 @@
         <v>2015600</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>3049900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43830,6 +43830,41 @@
         <v>3049900</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>834300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2238"/>
+  <dimension ref="A1:I2239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78760,6 +78760,41 @@
         <v>834300</v>
       </c>
     </row>
+    <row r="2239">
+      <c r="A2239" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2239" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2239" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2239" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2239" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2239" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2239" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2239" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2239" t="n">
+        <v>2562700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2239"/>
+  <dimension ref="A1:I2240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78795,6 +78795,41 @@
         <v>2562700</v>
       </c>
     </row>
+    <row r="2240">
+      <c r="A2240" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2240" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2240" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2240" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2240" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2240" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2240" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2240" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2240" t="n">
+        <v>2845700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2240"/>
+  <dimension ref="A1:I2241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78830,6 +78830,41 @@
         <v>2845700</v>
       </c>
     </row>
+    <row r="2241">
+      <c r="A2241" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2241" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2241" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2241" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2241" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2241" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2241" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2241" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2241" t="n">
+        <v>4941000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2241"/>
+  <dimension ref="A1:I2242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78865,6 +78865,41 @@
         <v>4941000</v>
       </c>
     </row>
+    <row r="2242">
+      <c r="A2242" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2242" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2242" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2242" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2242" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2242" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2242" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2242" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2242" t="n">
+        <v>3528600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2242"/>
+  <dimension ref="A1:I2243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78900,6 +78900,41 @@
         <v>3528600</v>
       </c>
     </row>
+    <row r="2243">
+      <c r="A2243" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2243" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2243" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2243" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2243" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2243" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2243" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2243" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2243" t="n">
+        <v>7102800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2243"/>
+  <dimension ref="A1:I2244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78935,6 +78935,41 @@
         <v>7102800</v>
       </c>
     </row>
+    <row r="2244">
+      <c r="A2244" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2244" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2244" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2244" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2244" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2244" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2244" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2244" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2244" t="n">
+        <v>4228400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2244"/>
+  <dimension ref="A1:I2245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78970,6 +78970,41 @@
         <v>4228400</v>
       </c>
     </row>
+    <row r="2245">
+      <c r="A2245" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2245" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2245" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2245" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2245" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2245" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2245" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2245" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2245" t="n">
+        <v>4504500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2245"/>
+  <dimension ref="A1:I2246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79005,6 +79005,41 @@
         <v>4504500</v>
       </c>
     </row>
+    <row r="2246">
+      <c r="A2246" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2246" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2246" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2246" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2246" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2246" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2246" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2246" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2246" t="n">
+        <v>1851700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2246"/>
+  <dimension ref="A1:I2247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79040,6 +79040,41 @@
         <v>1851700</v>
       </c>
     </row>
+    <row r="2247">
+      <c r="A2247" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2247" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2247" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2247" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2247" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2247" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G2247" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2247" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2247" t="n">
+        <v>730200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2247"/>
+  <dimension ref="A1:I2248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79075,6 +79075,41 @@
         <v>730200</v>
       </c>
     </row>
+    <row r="2248">
+      <c r="A2248" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2248" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2248" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2248" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2248" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2248" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G2248" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H2248" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2248" t="n">
+        <v>617300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2248"/>
+  <dimension ref="A1:I2249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79110,6 +79110,41 @@
         <v>617300</v>
       </c>
     </row>
+    <row r="2249">
+      <c r="A2249" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2249" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2249" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2249" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2249" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2249" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2249" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2249" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2249" t="n">
+        <v>236600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2249"/>
+  <dimension ref="A1:I2250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79145,6 +79145,41 @@
         <v>236600</v>
       </c>
     </row>
+    <row r="2250">
+      <c r="A2250" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2250" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2250" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2250" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2250" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2250" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2250" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2250" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2250" t="n">
+        <v>106000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2250"/>
+  <dimension ref="A1:I2251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79180,6 +79180,41 @@
         <v>106000</v>
       </c>
     </row>
+    <row r="2251">
+      <c r="A2251" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2251" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2251" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2251" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2251" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2251" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2251" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2251" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2251" t="n">
+        <v>1598400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2251"/>
+  <dimension ref="A1:I2252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79215,6 +79215,41 @@
         <v>1598400</v>
       </c>
     </row>
+    <row r="2252">
+      <c r="A2252" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2252" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2252" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2252" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2252" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F2252" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G2252" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H2252" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2252" t="n">
+        <v>780700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2252"/>
+  <dimension ref="A1:I2253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79250,6 +79250,41 @@
         <v>780700</v>
       </c>
     </row>
+    <row r="2253">
+      <c r="A2253" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2253" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2253" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2253" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2253" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2253" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G2253" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2253" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I2253" t="n">
+        <v>26300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2452"/>
+  <dimension ref="A1:I2453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86250,6 +86250,41 @@
         <v>26300</v>
       </c>
     </row>
+    <row r="2453">
+      <c r="A2453" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2453" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2453" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2453" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2453" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2453" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2453" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H2453" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2453" t="n">
+        <v>246000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2453"/>
+  <dimension ref="A1:I2454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86285,6 +86285,41 @@
         <v>246000</v>
       </c>
     </row>
+    <row r="2454">
+      <c r="A2454" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2454" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2454" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2454" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2454" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2454" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2454" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2454" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I2454" t="n">
+        <v>2003600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2454"/>
+  <dimension ref="A1:I2455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86320,6 +86320,41 @@
         <v>2003600</v>
       </c>
     </row>
+    <row r="2455">
+      <c r="A2455" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2455" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2455" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2455" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2455" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F2455" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2455" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H2455" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I2455" t="n">
+        <v>672600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2455"/>
+  <dimension ref="A1:I2456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86355,6 +86355,41 @@
         <v>672600</v>
       </c>
     </row>
+    <row r="2456">
+      <c r="A2456" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2456" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2456" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2456" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2456" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2456" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2456" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H2456" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2456" t="n">
+        <v>506000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2456"/>
+  <dimension ref="A1:I2457"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86390,6 +86390,41 @@
         <v>506000</v>
       </c>
     </row>
+    <row r="2457">
+      <c r="A2457" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2457" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2457" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2457" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2457" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2457" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2457" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H2457" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2457" t="n">
+        <v>1485900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2457"/>
+  <dimension ref="A1:I2458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86425,6 +86425,41 @@
         <v>1485900</v>
       </c>
     </row>
+    <row r="2458">
+      <c r="A2458" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2458" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2458" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2458" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2458" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2458" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2458" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2458" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I2458" t="n">
+        <v>910700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2458"/>
+  <dimension ref="A1:I2459"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86460,6 +86460,41 @@
         <v>910700</v>
       </c>
     </row>
+    <row r="2459">
+      <c r="A2459" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2459" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2459" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2459" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2459" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2459" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2459" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2459" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2459" t="n">
+        <v>317400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2459"/>
+  <dimension ref="A1:I2460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86495,6 +86495,41 @@
         <v>317400</v>
       </c>
     </row>
+    <row r="2460">
+      <c r="A2460" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2460" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2460" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2460" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2460" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F2460" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2460" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H2460" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I2460" t="n">
+        <v>4636800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2460"/>
+  <dimension ref="A1:I2461"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86530,6 +86530,41 @@
         <v>4636800</v>
       </c>
     </row>
+    <row r="2461">
+      <c r="A2461" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2461" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2461" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2461" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2461" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F2461" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2461" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2461" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2461" t="n">
+        <v>2183600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2461"/>
+  <dimension ref="A1:I2462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86565,6 +86565,41 @@
         <v>2183600</v>
       </c>
     </row>
+    <row r="2462">
+      <c r="A2462" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2462" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2462" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2462" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2462" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2462" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2462" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2462" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2462" t="n">
+        <v>771300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2462"/>
+  <dimension ref="A1:I2464"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86600,6 +86600,76 @@
         <v>771300</v>
       </c>
     </row>
+    <row r="2463">
+      <c r="A2463" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2463" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2463" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2463" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2463" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F2463" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2463" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2463" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I2463" t="n">
+        <v>1377400</v>
+      </c>
+    </row>
+    <row r="2464">
+      <c r="A2464" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2464" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2464" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2464" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2464" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F2464" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2464" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H2464" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2464" t="n">
+        <v>1448600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2464"/>
+  <dimension ref="A1:I2465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86670,6 +86670,41 @@
         <v>1448600</v>
       </c>
     </row>
+    <row r="2465">
+      <c r="A2465" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2465" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2465" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2465" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2465" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F2465" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2465" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H2465" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I2465" t="n">
+        <v>646900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2465"/>
+  <dimension ref="A1:I2468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86705,6 +86705,111 @@
         <v>646900</v>
       </c>
     </row>
+    <row r="2466">
+      <c r="A2466" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2466" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2466" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2466" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2466" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F2466" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2466" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2466" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2466" t="n">
+        <v>474000</v>
+      </c>
+    </row>
+    <row r="2467">
+      <c r="A2467" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2467" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2467" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2467" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2467" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2467" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2467" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2467" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I2467" t="n">
+        <v>384300</v>
+      </c>
+    </row>
+    <row r="2468">
+      <c r="A2468" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2468" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2468" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2468" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2468" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F2468" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2468" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2468" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I2468" t="n">
+        <v>2431300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2468"/>
+  <dimension ref="A1:I2469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86810,6 +86810,41 @@
         <v>2431300</v>
       </c>
     </row>
+    <row r="2469">
+      <c r="A2469" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2469" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2469" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2469" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2469" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2469" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2469" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2469" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2469" t="n">
+        <v>13011800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2469"/>
+  <dimension ref="A1:I2470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86845,6 +86845,41 @@
         <v>13011800</v>
       </c>
     </row>
+    <row r="2470">
+      <c r="A2470" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2470" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2470" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2470" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2470" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F2470" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2470" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2470" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I2470" t="n">
+        <v>5554200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7245.xlsx
+++ b/data/7245.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2470"/>
+  <dimension ref="A1:I2473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86880,6 +86880,111 @@
         <v>5554200</v>
       </c>
     </row>
+    <row r="2471">
+      <c r="A2471" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2471" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2471" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2471" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2471" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2471" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G2471" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2471" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I2471" t="n">
+        <v>4197000</v>
+      </c>
+    </row>
+    <row r="2472">
+      <c r="A2472" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2472" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2472" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2472" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2472" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F2472" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2472" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2472" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I2472" t="n">
+        <v>2096400</v>
+      </c>
+    </row>
+    <row r="2473">
+      <c r="A2473" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2473" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2473" t="inlineStr">
+        <is>
+          <t>7245</t>
+        </is>
+      </c>
+      <c r="D2473" t="inlineStr">
+        <is>
+          <t>WZSATU</t>
+        </is>
+      </c>
+      <c r="E2473" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F2473" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2473" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H2473" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I2473" t="n">
+        <v>754500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
